--- a/biology/Botanique/Jōmon_sugi/Jōmon_sugi.xlsx
+++ b/biology/Botanique/Jōmon_sugi/Jōmon_sugi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C5%8Dmon_sugi</t>
+          <t>Jōmon_sugi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jōmon sugi (縄文杉?) est un grand Cryptomeria japonica situé à Yakushima (variété yakusugi), un site du patrimoine mondial de l'humanité au Japon.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C5%8Dmon_sugi</t>
+          <t>Jōmon_sugi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le plus ancien et le plus grand des 2 000 cryptomerias de l'île, et son âge est estimé entre 2 170 et 7 200 ans. D'autres évaluations de l'âge de l'arbre incluent « au moins 5 000 ans », « plus de 6 000 ans », et « jusqu'à 7 000 années ». Le nom de l'arbre fait référence à la période Jōmon de la préhistoire japonaise.
 Jōmon sugi est situé à l'altitude de 1 300 mètres sur la face nord de Miyanoura-dake (宮之浦岳?), le plus haut sommet de Yakushima.
